--- a/Gisaid_sample_sheet.xlsx
+++ b/Gisaid_sample_sheet.xlsx
@@ -309,15 +309,15 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Gisaid_sample_sheet.xlsx
+++ b/Gisaid_sample_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t xml:space="preserve">platform</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">FHI548.fasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run702.fasta</t>
   </si>
 </sst>
 </file>
@@ -309,10 +312,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -508,6 +511,35 @@
         <v>19</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>20</v>
       </c>
     </row>
